--- a/src/client/CellScript.Client.Fcs/datas/book1.xlsx
+++ b/src/client/CellScript.Client.Fcs/datas/book1.xlsx
@@ -2,10 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A80574-D451-4B90-BB1B-AA8344DD372D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VsCode\Github\CellScript\src\client\CellScript.Client.Fcs\datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8F05DB-DCF2-4034-876D-E1B7080FBF77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="9060" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="8484" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExcelReference" sheetId="6" r:id="rId1"/>
@@ -14,11 +19,9 @@
     <sheet name="Script" sheetId="4" r:id="rId4"/>
     <sheet name="Query" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029" calcMode="manual"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -28,28 +31,6 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
   <si>
@@ -89,18 +70,7 @@
     <t>HT-18-024</t>
   </si>
   <si>
-    <r>
-      <t>供货方</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>:</t>
-    </r>
+    <t/>
   </si>
   <si>
     <t>商务部：</t>
@@ -115,104 +85,29 @@
     <t>见下方表格</t>
   </si>
   <si>
-    <r>
-      <t>Cust. REF</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-客人货号</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>REF ORDER</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  客人型号</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Fact. S/N</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-公司货号</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Colour</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>颜色</t>
-    </r>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>法文颜色</t>
   </si>
   <si>
-    <r>
-      <t>PICTURE</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>图片</t>
-    </r>
+    <t/>
   </si>
   <si>
     <t xml:space="preserve">
 鞋面材料和颜色</t>
   </si>
   <si>
-    <r>
-      <t>Descrt</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-货品描述</t>
-    </r>
+    <t/>
   </si>
   <si>
     <t>ASST</t>
@@ -221,70 +116,13 @@
     <t>Size run （配码）</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Pack
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>箱</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Cartons</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-箱数</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Details       </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>箱号</t>
-    </r>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>内盒规格外径</t>
@@ -344,36 +182,13 @@
     <t>样品要求：</t>
   </si>
   <si>
-    <r>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>配码：</t>
-    </r>
+    <t/>
   </si>
   <si>
     <t>TAMS商标</t>
   </si>
   <si>
-    <r>
-      <t>大货操作注意事项：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t/>
   </si>
   <si>
     <t>28  29  30  31  32  33 34  35</t>
@@ -403,35 +218,7 @@
     <t>12双： 3*4 41.5*39*26.5</t>
   </si>
   <si>
-    <r>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>我司订单成型一律不准外发，针车如特殊情况要外发必须我司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>QC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>确认过外加工厂后方可外发</t>
-    </r>
+    <t/>
   </si>
   <si>
     <t>日期：出货前</t>
@@ -443,18 +230,7 @@
     <t>10双：2*5   51.5*26.5*26.5</t>
   </si>
   <si>
-    <r>
-      <t>5.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生产包装颜色参照我司包装资料，大货包装前需给我司业务确认后方可操作</t>
-    </r>
+    <t/>
   </si>
   <si>
     <t>16双：4*4  51.5*41.5*26.5</t>
@@ -480,11 +256,11 @@
 open CellScript.Core
 fun (table: Table) -&gt;
     table</t>
-    <phoneticPr fontId="44" type="noConversion"/>
-  </si>
-  <si>
-    <t>fun a -&gt; a + "14"</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>fun a -&gt; a + "10090"</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
   </si>
 </sst>
 </file>
@@ -1695,107 +1471,30 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>373380</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDFB5970-7B03-4C55-AF0D-869F99C70943}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4122420" y="4099560"/>
-          <a:ext cx="571500" cy="198120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0654FFFF-BD04-49C1-8888-80CE039F28D8}" name="Table134" displayName="Table134" ref="A1:C3" totalsRowShown="0">
-  <autoFilter ref="A1:C3" xr:uid="{54273B06-397C-439E-906A-CD7260C6DE28}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C05BFDAD-CFDD-4323-B612-6AD2BF733AC3}" name="US"/>
-    <tableColumn id="2" xr3:uid="{61414270-F5FF-4CEA-85EC-810FBCEA131D}" name="UK"/>
-    <tableColumn id="3" xr3:uid="{B5E225DB-CD9B-45A8-8061-0693DB6C4F07}" name="EUR"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{91A1DB06-98A7-4EA9-BD16-77984A928ECA}" name="Table13" displayName="Table13" ref="B8:D10" totalsRowShown="0">
-  <autoFilter ref="B8:D10" xr:uid="{34B58DA8-8805-428C-87EE-39A400B28575}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1E8720E8-FD73-4151-9D8E-D3AE0273F855}" name="US"/>
-    <tableColumn id="2" xr3:uid="{061B98DB-309C-429A-B2EE-A245B38F3D2E}" name="UK"/>
-    <tableColumn id="3" xr3:uid="{7B41B5A5-715E-4EDB-916A-2E629463A9B5}" name="EUR"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
+<file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
+<volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <volType type="realTimeData">
+    <main first="rtdsrv.895c5c1bc9ed4b49b335111523585e1f">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>bb385ecf-8397-43aa-8605-dfb6188216d9</stp>
+        <tr r="B4" s="4"/>
+      </tp>
+      <tp>
+        <v>-2</v>
+        <stp/>
+        <stp>4905b0c5-aa95-4f51-9eaf-4741803be2ae</stp>
+        <tr r="D14" s="4"/>
+        <tr r="C14" s="4"/>
+        <tr r="B14" s="4"/>
+        <tr r="D13" s="4"/>
+        <tr r="C13" s="4"/>
+        <tr r="B13" s="4"/>
+      </tp>
+    </main>
+  </volType>
+</volTypes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1815,7 +1514,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -1827,7 +1526,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -1874,6 +1573,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1909,6 +1625,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2060,23 +1793,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11749ED-6149-46CD-8A38-4B284BA429BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="18.5546875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>71</v>
       </c>
-      <c r="E2" t="e" cm="1">
+      <c r="E2" t="e">
         <f t="array" aca="1" ref="E2:F8" ca="1">_xll.InnerMsg.TestExcelReference(B2)</f>
         <v>#NAME?</v>
       </c>
@@ -2141,6 +1869,95 @@
         <v>#NAME?</v>
       </c>
       <c r="F8" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="44" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>110</v>
+      </c>
+      <c r="C2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>99</v>
+      </c>
+      <c r="C3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F4" t="e">
+        <f t="array" aca="1" ref="F4:H6" ca="1">_xll.TestTable(#REF!)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G4" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H4" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F5" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G5" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H5" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H6" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
@@ -2152,99 +1969,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA4541B-84B9-49CF-9BF0-E9F3818E4654}">
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>110</v>
-      </c>
-      <c r="C2">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>99</v>
-      </c>
-      <c r="C3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F4" t="str" cm="1">
-        <f t="array" ref="F4:H6">_xll.TestTable(Table134[#All])</f>
-        <v>US</v>
-      </c>
-      <c r="G4" t="str">
-        <v>UK</v>
-      </c>
-      <c r="H4" t="str">
-        <v>EUR</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F5">
-        <v>6</v>
-      </c>
-      <c r="G5">
-        <v>110</v>
-      </c>
-      <c r="H5">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F6">
-        <v>7</v>
-      </c>
-      <c r="G6">
-        <v>99</v>
-      </c>
-      <c r="H6">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="44" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E8705D-8183-4114-9372-D25C9149B15F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2252,33 +1981,36 @@
       <c r="A1">
         <v>13</v>
       </c>
-      <c r="C1" cm="1">
-        <f t="array" ref="C1:C4">_xll.TestExcelVector(A1:A4)</f>
-        <v>13</v>
+      <c r="C1" t="e">
+        <f t="array" aca="1" ref="C1:C4" ca="1">_xll.TestExcelVector(A1:A4)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>3</v>
+      <c r="C2" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
-      <c r="C3">
-        <v>3</v>
+      <c r="C3" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
-      <c r="C4">
-        <v>4</v>
+      <c r="C4" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2294,18 +2026,21 @@
       <c r="D7">
         <v>6</v>
       </c>
-      <c r="F7" cm="1">
-        <f t="array" ref="F7:I7">_xll.TestExcelVector(A7:D7)</f>
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-      <c r="I7">
-        <v>6</v>
+      <c r="F7" t="e">
+        <f t="array" aca="1" ref="F7:I7" ca="1">_xll.TestExcelVector(A7:D7)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="I7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
@@ -2315,21 +2050,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1568DE03-C3D6-49ED-9335-5A5049A1648C}">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -2350,16 +2085,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="e">
-        <f ca="1">_xll.Eval(B2, B3)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="19.8" thickBot="1" x14ac:dyDescent="0.4">
+        <f ca="1">_xll.Eval(B2, B3  )</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="156" t="s">
         <v>6</v>
       </c>
@@ -2397,7 +2132,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="138" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
@@ -2409,31 +2144,48 @@
       <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="B13" t="str">
+        <f t="array" aca="1" ref="B13:D14" ca="1">_xll.Eval(B8:D10,B12)</f>
+        <v>US</v>
+      </c>
+      <c r="C13" t="str">
+        <f ca="1"/>
+        <v>UK</v>
+      </c>
+      <c r="D13" t="str">
+        <f ca="1"/>
+        <v>EUR</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f ca="1"/>
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <f ca="1"/>
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <f ca="1"/>
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A8:A10"/>
-  </mergeCells>
   <phoneticPr fontId="44" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="66" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F678492-3E86-45D9-AD11-8F8E281F39F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AB29"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:28" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="28.2" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -2465,7 +2217,7 @@
       <c r="AA1" s="13"/>
       <c r="AB1" s="14"/>
     </row>
-    <row r="2" spans="1:28" ht="22.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="28.2" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -2495,7 +2247,7 @@
       <c r="AA2" s="13"/>
       <c r="AB2" s="14"/>
     </row>
-    <row r="3" spans="1:28" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="28.2" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -2693,7 +2445,7 @@
       <c r="AA8" s="42"/>
       <c r="AB8" s="43"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A9" s="184" t="s">
         <v>69</v>
       </c>
@@ -2765,7 +2517,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="185"/>
       <c r="B10" s="159"/>
       <c r="C10" s="193"/>
@@ -2811,7 +2563,7 @@
       <c r="AA10" s="177"/>
       <c r="AB10" s="178"/>
     </row>
-    <row r="11" spans="1:28" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A11" s="186">
         <v>16501</v>
       </c>
@@ -2953,7 +2705,7 @@
         <v>3.5442557500000005</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A13" s="186"/>
       <c r="B13" s="186"/>
       <c r="C13" s="51">
@@ -3587,50 +3339,7 @@
       <c r="AB29" s="92"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="Y11:Y17"/>
-    <mergeCell ref="X13:X17"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="G11:G17"/>
-    <mergeCell ref="H11:H17"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A18:S18"/>
-    <mergeCell ref="I11:I17"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="W11:W17"/>
-    <mergeCell ref="A11:A17"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="D11:D17"/>
-    <mergeCell ref="E11:E17"/>
-    <mergeCell ref="F11:F17"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="W1:X3"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:R9"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="F9:F10"/>
-  </mergeCells>
   <phoneticPr fontId="44" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="66" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/client/CellScript.Client.Fcs/datas/book1.xlsx
+++ b/src/client/CellScript.Client.Fcs/datas/book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VsCode\Github\CellScript\src\client\CellScript.Client.Fcs\datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8F05DB-DCF2-4034-876D-E1B7080FBF77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B48C78-10B2-43C5-A97D-43DC4D2857ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="8484" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,6 @@
     <sheet name="Query" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1474,17 +1473,11 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.895c5c1bc9ed4b49b335111523585e1f">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>bb385ecf-8397-43aa-8605-dfb6188216d9</stp>
-        <tr r="B4" s="4"/>
-      </tp>
+    <main first="rtdsrv.015402b3425c418eb62c522f065dcb44">
       <tp>
         <v>-2</v>
         <stp/>
-        <stp>4905b0c5-aa95-4f51-9eaf-4741803be2ae</stp>
+        <stp>452442c7-7077-4a3c-9a35-40a95fb01225</stp>
         <tr r="D14" s="4"/>
         <tr r="C14" s="4"/>
         <tr r="B14" s="4"/>
@@ -2053,8 +2046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2084,9 +2077,9 @@
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="e">
+      <c r="B4" t="str">
         <f ca="1">_xll.Eval(B2, B3  )</f>
-        <v>#N/A</v>
+        <v>Hello10090</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
